--- a/biology/Botanique/Sauce_Cumberland/Sauce_Cumberland.xlsx
+++ b/biology/Botanique/Sauce_Cumberland/Sauce_Cumberland.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sauce Cumberland ou sauce Oxford[1] est une sauce à base de vin de Porto qui mélange gelée, jus d'agrumes, moutarde et épices.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sauce Cumberland ou sauce Oxford est une sauce à base de vin de Porto qui mélange gelée, jus d'agrumes, moutarde et épices.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sauce est nommée ainsi en l'honneur du duc de Cumberland, plus jeune fils de George II de Grande-Bretagne et Caroline d'Ansbach. Il est entré dans l'histoire pour avoir écrasé la rébellion jacobite à la bataille de Culloden en 1746[2]. Le gastronome Auguste Escoffier l'a popularisée[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sauce est nommée ainsi en l'honneur du duc de Cumberland, plus jeune fils de George II de Grande-Bretagne et Caroline d'Ansbach. Il est entré dans l'histoire pour avoir écrasé la rébellion jacobite à la bataille de Culloden en 1746. Le gastronome Auguste Escoffier l'a popularisée.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Ingrédients et préparation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sauce est préparée avec du vin de Porto et de la gelée de groseille mélangés dans une casserole à feu doux. Dans un bol, un jus de citron et un jus d'orange sont mélangés à froid avec une sauce à la moutarde, du poivre de Cayenne et du gingembre auxquels viennent s'ajouter le porto et la gelée. Avant de servir sont ajoutés des zestes de citron et d'orange émincés en lanières (appelées « allumettes ») qui ont bouilli pendant quelques minutes pour en faire disparaître l'amertume[1],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sauce est préparée avec du vin de Porto et de la gelée de groseille mélangés dans une casserole à feu doux. Dans un bol, un jus de citron et un jus d'orange sont mélangés à froid avec une sauce à la moutarde, du poivre de Cayenne et du gingembre auxquels viennent s'ajouter le porto et la gelée. Avant de servir sont ajoutés des zestes de citron et d'orange émincés en lanières (appelées « allumettes ») qui ont bouilli pendant quelques minutes pour en faire disparaître l'amertume,.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle se sert froide et accompagne du gibier, des viandes froides et galantines[5]. Au Royaume-Uni, elle est d'un usage courant dans les snack-bars et les pique-niques[6].  
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se sert froide et accompagne du gibier, des viandes froides et galantines. Au Royaume-Uni, elle est d'un usage courant dans les snack-bars et les pique-niques.  
 </t>
         </is>
       </c>
